--- a/Kode Issuer dan Placement Bank.xlsx
+++ b/Kode Issuer dan Placement Bank.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A517821-C0CE-46EB-88B1-65ED5A134D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB669471-F9BA-4F16-BE19-423CC3545EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BANK" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BANK!$A$1:$J$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BANK!$A$2:$J$313</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,8 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="648">
   <si>
     <t>Status</t>
   </si>
@@ -1954,6 +1952,27 @@
   </si>
   <si>
     <t>IDR</t>
+  </si>
+  <si>
+    <t>Mandatory  and must be C or S</t>
+  </si>
+  <si>
+    <t>Mandatory and must be Listed or Not Listed</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory, but free text</t>
+  </si>
+  <si>
+    <t>Mandatory, can be alphanumeric</t>
+  </si>
+  <si>
+    <t>Mandatory, must be 2 characters, and alphabetic</t>
+  </si>
+  <si>
+    <t>Mandatory, must be length 3 characters</t>
   </si>
 </sst>
 </file>
@@ -1997,12 +2016,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2032,7 +2057,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2343,150 +2370,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B73BA99-8116-47A5-B528-3F7BCB93BA96}">
-  <dimension ref="A1:I313"/>
+  <dimension ref="A1:I314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D319" sqref="D319"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>307</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="str">
-        <f>MID(A2,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="str">
+        <f>MID(A3,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>312</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>205</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">MID(A3,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C67" si="0">MID(A4,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>313</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>C</v>
-      </c>
-      <c r="D4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -2508,15 +2535,15 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -2538,15 +2565,15 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -2568,15 +2595,15 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -2598,15 +2625,15 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -2628,19 +2655,19 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D10" t="s">
         <v>308</v>
@@ -2649,7 +2676,7 @@
         <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G10" t="s">
         <v>311</v>
@@ -2658,19 +2685,19 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D11" t="s">
         <v>308</v>
@@ -2679,24 +2706,24 @@
         <v>309</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G11" t="s">
         <v>311</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -2715,18 +2742,18 @@
         <v>311</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -2748,15 +2775,15 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2778,15 +2805,15 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2808,19 +2835,19 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D16" t="s">
         <v>308</v>
@@ -2829,24 +2856,24 @@
         <v>309</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
         <v>311</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -2868,19 +2895,19 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D18" t="s">
         <v>308</v>
@@ -2889,7 +2916,7 @@
         <v>309</v>
       </c>
       <c r="F18" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
         <v>311</v>
@@ -2898,15 +2925,15 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -2931,12 +2958,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -2961,12 +2988,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -2988,19 +3015,19 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D22" t="s">
         <v>308</v>
@@ -3009,24 +3036,24 @@
         <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G22" t="s">
         <v>311</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -3048,19 +3075,19 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D24" t="s">
         <v>308</v>
@@ -3069,24 +3096,24 @@
         <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
         <v>311</v>
       </c>
       <c r="H24" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -3108,15 +3135,15 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -3138,15 +3165,15 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -3171,12 +3198,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>625</v>
+        <v>223</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -3201,12 +3228,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s">
-        <v>279</v>
+        <v>625</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -3231,12 +3258,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -3261,12 +3288,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3285,18 +3312,18 @@
         <v>311</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3318,15 +3345,15 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -3345,18 +3372,18 @@
         <v>311</v>
       </c>
       <c r="H33" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -3375,18 +3402,18 @@
         <v>311</v>
       </c>
       <c r="H34" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I34" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
@@ -3408,15 +3435,15 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
@@ -3438,15 +3465,15 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
@@ -3468,15 +3495,15 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
@@ -3495,18 +3522,18 @@
         <v>311</v>
       </c>
       <c r="H38" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
@@ -3528,15 +3555,15 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
@@ -3555,18 +3582,18 @@
         <v>311</v>
       </c>
       <c r="H40" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
@@ -3588,19 +3615,19 @@
         <v>7</v>
       </c>
       <c r="I41" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D42" t="s">
         <v>308</v>
@@ -3609,28 +3636,28 @@
         <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G42" t="s">
         <v>311</v>
       </c>
       <c r="H42" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I42" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D43" t="s">
         <v>308</v>
@@ -3639,24 +3666,24 @@
         <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G43" t="s">
         <v>311</v>
       </c>
       <c r="H43" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
@@ -3678,15 +3705,15 @@
         <v>7</v>
       </c>
       <c r="I44" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
@@ -3705,18 +3732,18 @@
         <v>311</v>
       </c>
       <c r="H45" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
@@ -3741,12 +3768,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
@@ -3768,15 +3795,15 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
@@ -3795,18 +3822,18 @@
         <v>311</v>
       </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
@@ -3828,19 +3855,19 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D50" t="s">
         <v>308</v>
@@ -3849,7 +3876,7 @@
         <v>309</v>
       </c>
       <c r="F50" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G50" t="s">
         <v>311</v>
@@ -3858,15 +3885,15 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
@@ -3888,19 +3915,19 @@
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D52" t="s">
         <v>308</v>
@@ -3909,24 +3936,24 @@
         <v>309</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G52" t="s">
         <v>311</v>
       </c>
       <c r="H52" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I52" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
@@ -3945,18 +3972,18 @@
         <v>311</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
@@ -3978,15 +4005,15 @@
         <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
@@ -4008,15 +4035,15 @@
         <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
@@ -4038,15 +4065,15 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
@@ -4068,15 +4095,15 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
@@ -4098,19 +4125,19 @@
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D59" t="s">
         <v>308</v>
@@ -4119,24 +4146,24 @@
         <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
         <v>311</v>
       </c>
       <c r="H59" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
@@ -4158,19 +4185,19 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D61" t="s">
         <v>308</v>
@@ -4179,24 +4206,24 @@
         <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G61" t="s">
         <v>311</v>
       </c>
       <c r="H61" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -4218,15 +4245,15 @@
         <v>7</v>
       </c>
       <c r="I62" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -4248,15 +4275,15 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
@@ -4278,19 +4305,19 @@
         <v>7</v>
       </c>
       <c r="I64" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D65" t="s">
         <v>308</v>
@@ -4299,7 +4326,7 @@
         <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
         <v>311</v>
@@ -4308,19 +4335,19 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="0"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D66" t="s">
         <v>308</v>
@@ -4329,7 +4356,7 @@
         <v>309</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G66" t="s">
         <v>311</v>
@@ -4341,102 +4368,102 @@
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>376</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="D67" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" t="s">
+        <v>309</v>
+      </c>
+      <c r="F67" t="s">
+        <v>310</v>
+      </c>
+      <c r="G67" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>377</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>91</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C131" si="1">MID(A67,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D67" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" t="s">
-        <v>309</v>
-      </c>
-      <c r="F67" t="s">
-        <v>310</v>
-      </c>
-      <c r="G67" t="s">
-        <v>311</v>
-      </c>
-      <c r="H67" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="C68" t="str">
+        <f t="shared" ref="C68:C132" si="1">MID(A68,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D68" t="s">
+        <v>308</v>
+      </c>
+      <c r="E68" t="s">
+        <v>309</v>
+      </c>
+      <c r="F68" t="s">
+        <v>310</v>
+      </c>
+      <c r="G68" t="s">
+        <v>311</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>378</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="D68" t="s">
-        <v>308</v>
-      </c>
-      <c r="E68" t="s">
-        <v>309</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D69" t="s">
+        <v>308</v>
+      </c>
+      <c r="E69" t="s">
+        <v>309</v>
+      </c>
+      <c r="F69" t="s">
         <v>320</v>
       </c>
-      <c r="G68" t="s">
-        <v>311</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="G69" t="s">
+        <v>311</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>379</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>187</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="D69" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="F69" t="s">
-        <v>310</v>
-      </c>
-      <c r="G69" t="s">
-        <v>311</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>380</v>
-      </c>
-      <c r="B70" t="s">
-        <v>188</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
@@ -4458,15 +4485,15 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
@@ -4485,18 +4512,18 @@
         <v>311</v>
       </c>
       <c r="H71" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
@@ -4518,15 +4545,15 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
@@ -4545,18 +4572,18 @@
         <v>311</v>
       </c>
       <c r="H73" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -4581,12 +4608,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
@@ -4608,15 +4635,15 @@
         <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
@@ -4638,15 +4665,15 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
@@ -4671,12 +4698,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
@@ -4701,12 +4728,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
@@ -4728,15 +4755,15 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
@@ -4755,18 +4782,18 @@
         <v>311</v>
       </c>
       <c r="H80" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
@@ -4788,15 +4815,15 @@
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
@@ -4815,18 +4842,18 @@
         <v>311</v>
       </c>
       <c r="H82" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I82" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
@@ -4845,18 +4872,18 @@
         <v>311</v>
       </c>
       <c r="H83" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
@@ -4878,19 +4905,19 @@
         <v>7</v>
       </c>
       <c r="I84" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D85" t="s">
         <v>308</v>
@@ -4899,7 +4926,7 @@
         <v>309</v>
       </c>
       <c r="F85" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G85" t="s">
         <v>311</v>
@@ -4908,19 +4935,19 @@
         <v>7</v>
       </c>
       <c r="I85" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D86" t="s">
         <v>308</v>
@@ -4929,7 +4956,7 @@
         <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G86" t="s">
         <v>311</v>
@@ -4941,12 +4968,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
@@ -4968,104 +4995,104 @@
         <v>7</v>
       </c>
       <c r="I87" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="D88" t="s">
+        <v>308</v>
+      </c>
+      <c r="E88" t="s">
+        <v>309</v>
+      </c>
+      <c r="F88" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" t="s">
+        <v>311</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>398</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
-      <c r="D88" t="s">
-        <v>308</v>
-      </c>
-      <c r="E88" t="s">
-        <v>309</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="D89" t="s">
+        <v>308</v>
+      </c>
+      <c r="E89" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" t="s">
         <v>320</v>
       </c>
-      <c r="G88" t="s">
-        <v>311</v>
-      </c>
-      <c r="H88" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="G89" t="s">
+        <v>311</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="D90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I89" s="1" t="s">
+      <c r="G90" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>399</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>175</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="D90" t="s">
-        <v>308</v>
-      </c>
-      <c r="E90" t="s">
-        <v>309</v>
-      </c>
-      <c r="F90" t="s">
-        <v>310</v>
-      </c>
-      <c r="G90" t="s">
-        <v>311</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1</v>
-      </c>
-      <c r="I90" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>400</v>
-      </c>
-      <c r="B91" t="s">
-        <v>177</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -5087,19 +5114,19 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D92" t="s">
         <v>308</v>
@@ -5108,7 +5135,7 @@
         <v>309</v>
       </c>
       <c r="F92" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G92" t="s">
         <v>311</v>
@@ -5117,19 +5144,19 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D93" t="s">
         <v>308</v>
@@ -5138,7 +5165,7 @@
         <v>309</v>
       </c>
       <c r="F93" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G93" t="s">
         <v>311</v>
@@ -5150,12 +5177,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
@@ -5174,18 +5201,18 @@
         <v>311</v>
       </c>
       <c r="H94" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I94" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
@@ -5207,15 +5234,15 @@
         <v>7</v>
       </c>
       <c r="I95" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
@@ -5237,15 +5264,15 @@
         <v>7</v>
       </c>
       <c r="I96" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -5267,15 +5294,15 @@
         <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B98" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -5294,18 +5321,18 @@
         <v>311</v>
       </c>
       <c r="H98" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I98" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B99" t="s">
-        <v>627</v>
+        <v>234</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
@@ -5330,12 +5357,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B100" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
@@ -5360,12 +5387,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B101" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
@@ -5390,12 +5417,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B102" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
@@ -5420,12 +5447,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B103" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
@@ -5450,12 +5477,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>630</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
@@ -5480,12 +5507,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B105" t="s">
-        <v>631</v>
+        <v>276</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
@@ -5510,12 +5537,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B106" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
@@ -5540,12 +5567,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
+        <v>632</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
@@ -5570,12 +5597,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
@@ -5600,12 +5627,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
@@ -5624,18 +5651,18 @@
         <v>311</v>
       </c>
       <c r="H109" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
@@ -5657,15 +5684,15 @@
         <v>7</v>
       </c>
       <c r="I110" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
@@ -5684,18 +5711,18 @@
         <v>311</v>
       </c>
       <c r="H111" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I111" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
@@ -5720,12 +5747,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
@@ -5750,12 +5777,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
@@ -5780,12 +5807,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
@@ -5807,15 +5834,15 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
@@ -5834,18 +5861,18 @@
         <v>311</v>
       </c>
       <c r="H116" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B117" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
@@ -5867,19 +5894,19 @@
         <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D118" t="s">
         <v>308</v>
@@ -5888,28 +5915,28 @@
         <v>309</v>
       </c>
       <c r="F118" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G118" t="s">
         <v>311</v>
       </c>
       <c r="H118" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I118" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D119" t="s">
         <v>308</v>
@@ -5918,24 +5945,24 @@
         <v>309</v>
       </c>
       <c r="F119" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G119" t="s">
         <v>311</v>
       </c>
       <c r="H119" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I119" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
@@ -5957,19 +5984,19 @@
         <v>7</v>
       </c>
       <c r="I120" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D121" t="s">
         <v>308</v>
@@ -5978,7 +6005,7 @@
         <v>309</v>
       </c>
       <c r="F121" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G121" t="s">
         <v>311</v>
@@ -5987,19 +6014,19 @@
         <v>7</v>
       </c>
       <c r="I121" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D122" t="s">
         <v>308</v>
@@ -6008,24 +6035,24 @@
         <v>309</v>
       </c>
       <c r="F122" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G122" t="s">
         <v>311</v>
       </c>
       <c r="H122" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I122" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
@@ -6044,18 +6071,18 @@
         <v>311</v>
       </c>
       <c r="H123" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I123" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
@@ -6077,19 +6104,19 @@
         <v>7</v>
       </c>
       <c r="I124" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D125" t="s">
         <v>308</v>
@@ -6098,7 +6125,7 @@
         <v>309</v>
       </c>
       <c r="F125" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G125" t="s">
         <v>311</v>
@@ -6107,19 +6134,19 @@
         <v>7</v>
       </c>
       <c r="I125" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D126" t="s">
         <v>308</v>
@@ -6128,7 +6155,7 @@
         <v>309</v>
       </c>
       <c r="F126" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G126" t="s">
         <v>311</v>
@@ -6140,12 +6167,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B127" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
@@ -6167,19 +6194,19 @@
         <v>7</v>
       </c>
       <c r="I127" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D128" t="s">
         <v>308</v>
@@ -6188,7 +6215,7 @@
         <v>309</v>
       </c>
       <c r="F128" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G128" t="s">
         <v>311</v>
@@ -6197,19 +6224,19 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>55</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D129" t="s">
         <v>308</v>
@@ -6218,24 +6245,24 @@
         <v>309</v>
       </c>
       <c r="F129" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G129" t="s">
         <v>311</v>
       </c>
       <c r="H129" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I129" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="1"/>
@@ -6260,12 +6287,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="1"/>
@@ -6287,75 +6314,75 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>440</v>
+      </c>
+      <c r="B132" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="D132" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" t="s">
+        <v>309</v>
+      </c>
+      <c r="F132" t="s">
+        <v>310</v>
+      </c>
+      <c r="G132" t="s">
+        <v>311</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>441</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>109</v>
       </c>
-      <c r="C132" t="str">
-        <f t="shared" ref="C132:C193" si="2">MID(A132,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D132" t="s">
-        <v>308</v>
-      </c>
-      <c r="E132" t="s">
-        <v>309</v>
-      </c>
-      <c r="F132" t="s">
-        <v>310</v>
-      </c>
-      <c r="G132" t="s">
-        <v>311</v>
-      </c>
-      <c r="H132" t="s">
-        <v>7</v>
-      </c>
-      <c r="I132" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="C133" t="str">
+        <f t="shared" ref="C133:C194" si="2">MID(A133,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D133" t="s">
+        <v>308</v>
+      </c>
+      <c r="E133" t="s">
+        <v>309</v>
+      </c>
+      <c r="F133" t="s">
+        <v>310</v>
+      </c>
+      <c r="G133" t="s">
+        <v>311</v>
+      </c>
+      <c r="H133" t="s">
+        <v>7</v>
+      </c>
+      <c r="I133" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>442</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>110</v>
-      </c>
-      <c r="C133" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
-      <c r="D133" t="s">
-        <v>308</v>
-      </c>
-      <c r="E133" t="s">
-        <v>309</v>
-      </c>
-      <c r="F133" t="s">
-        <v>310</v>
-      </c>
-      <c r="G133" t="s">
-        <v>311</v>
-      </c>
-      <c r="H133" t="s">
-        <v>7</v>
-      </c>
-      <c r="I133" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>443</v>
-      </c>
-      <c r="B134" t="s">
-        <v>160</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
@@ -6377,15 +6404,15 @@
         <v>7</v>
       </c>
       <c r="I134" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
@@ -6407,19 +6434,19 @@
         <v>7</v>
       </c>
       <c r="I135" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D136" t="s">
         <v>308</v>
@@ -6428,7 +6455,7 @@
         <v>309</v>
       </c>
       <c r="F136" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G136" t="s">
         <v>311</v>
@@ -6437,19 +6464,19 @@
         <v>7</v>
       </c>
       <c r="I136" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D137" t="s">
         <v>308</v>
@@ -6458,7 +6485,7 @@
         <v>309</v>
       </c>
       <c r="F137" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G137" t="s">
         <v>311</v>
@@ -6470,12 +6497,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
@@ -6497,15 +6524,15 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
@@ -6524,18 +6551,18 @@
         <v>311</v>
       </c>
       <c r="H139" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I139" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
@@ -6560,12 +6587,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B141" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
@@ -6590,12 +6617,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>636</v>
+        <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
@@ -6620,12 +6647,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>451</v>
+        <v>636</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
@@ -6650,12 +6677,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B144" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
@@ -6680,12 +6707,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B145" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
@@ -6710,12 +6737,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
@@ -6740,12 +6767,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B147" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
@@ -6770,12 +6797,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
@@ -6800,12 +6827,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
@@ -6824,18 +6851,18 @@
         <v>311</v>
       </c>
       <c r="H149" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I149" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
@@ -6857,15 +6884,15 @@
         <v>7</v>
       </c>
       <c r="I150" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B151" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
@@ -6884,18 +6911,18 @@
         <v>311</v>
       </c>
       <c r="H151" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I151" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
@@ -6920,16 +6947,16 @@
         <v>640</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>275</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D153" t="s">
         <v>308</v>
@@ -6938,7 +6965,7 @@
         <v>309</v>
       </c>
       <c r="F153" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G153" t="s">
         <v>311</v>
@@ -6950,12 +6977,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
@@ -6977,19 +7004,19 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B155" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D155" t="s">
         <v>308</v>
@@ -6998,7 +7025,7 @@
         <v>309</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G155" t="s">
         <v>311</v>
@@ -7007,15 +7034,15 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
@@ -7040,12 +7067,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B157" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
@@ -7070,12 +7097,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
@@ -7094,18 +7121,18 @@
         <v>311</v>
       </c>
       <c r="H158" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
@@ -7127,15 +7154,15 @@
         <v>7</v>
       </c>
       <c r="I159" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
@@ -7157,15 +7184,15 @@
         <v>7</v>
       </c>
       <c r="I160" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
@@ -7187,15 +7214,15 @@
         <v>7</v>
       </c>
       <c r="I161" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
@@ -7217,15 +7244,15 @@
         <v>7</v>
       </c>
       <c r="I162" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
@@ -7247,15 +7274,15 @@
         <v>7</v>
       </c>
       <c r="I163" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
@@ -7274,18 +7301,18 @@
         <v>311</v>
       </c>
       <c r="H164" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I164" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>617</v>
+        <v>239</v>
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
@@ -7304,18 +7331,18 @@
         <v>311</v>
       </c>
       <c r="H165" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I165" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>617</v>
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
@@ -7337,15 +7364,15 @@
         <v>7</v>
       </c>
       <c r="I166" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
@@ -7367,15 +7394,15 @@
         <v>7</v>
       </c>
       <c r="I167" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
@@ -7397,19 +7424,19 @@
         <v>7</v>
       </c>
       <c r="I168" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B169" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D169" t="s">
         <v>308</v>
@@ -7418,7 +7445,7 @@
         <v>309</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G169" t="s">
         <v>311</v>
@@ -7427,19 +7454,19 @@
         <v>7</v>
       </c>
       <c r="I169" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D170" t="s">
         <v>308</v>
@@ -7448,7 +7475,7 @@
         <v>309</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G170" t="s">
         <v>311</v>
@@ -7460,12 +7487,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B171" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
@@ -7487,19 +7514,19 @@
         <v>7</v>
       </c>
       <c r="I171" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B172" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D172" t="s">
         <v>308</v>
@@ -7508,7 +7535,7 @@
         <v>309</v>
       </c>
       <c r="F172" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G172" t="s">
         <v>311</v>
@@ -7517,19 +7544,19 @@
         <v>7</v>
       </c>
       <c r="I172" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B173" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D173" t="s">
         <v>308</v>
@@ -7538,7 +7565,7 @@
         <v>309</v>
       </c>
       <c r="F173" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G173" t="s">
         <v>311</v>
@@ -7550,12 +7577,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B174" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
@@ -7577,19 +7604,19 @@
         <v>7</v>
       </c>
       <c r="I174" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B175" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D175" t="s">
         <v>308</v>
@@ -7598,7 +7625,7 @@
         <v>309</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G175" t="s">
         <v>311</v>
@@ -7607,19 +7634,19 @@
         <v>7</v>
       </c>
       <c r="I175" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D176" t="s">
         <v>308</v>
@@ -7628,24 +7655,24 @@
         <v>309</v>
       </c>
       <c r="F176" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G176" t="s">
         <v>311</v>
       </c>
       <c r="H176" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I176" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
@@ -7667,15 +7694,15 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B178" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
@@ -7697,15 +7724,15 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
@@ -7727,15 +7754,15 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B180" t="s">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
@@ -7757,15 +7784,15 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B181" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
@@ -7790,12 +7817,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
@@ -7820,12 +7847,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B183" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
@@ -7850,16 +7877,16 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B184" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D184" t="s">
         <v>308</v>
@@ -7868,24 +7895,24 @@
         <v>309</v>
       </c>
       <c r="F184" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G184" t="s">
         <v>311</v>
       </c>
       <c r="H184" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I184" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
@@ -7907,19 +7934,19 @@
         <v>7</v>
       </c>
       <c r="I185" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B186" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D186" t="s">
         <v>308</v>
@@ -7928,24 +7955,24 @@
         <v>309</v>
       </c>
       <c r="F186" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G186" t="s">
         <v>311</v>
       </c>
       <c r="H186" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I186" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B187" t="s">
-        <v>622</v>
+        <v>243</v>
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
@@ -7964,18 +7991,18 @@
         <v>311</v>
       </c>
       <c r="H187" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B188" t="s">
-        <v>111</v>
+        <v>622</v>
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
@@ -7997,15 +8024,15 @@
         <v>7</v>
       </c>
       <c r="I188" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B189" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
@@ -8024,18 +8051,18 @@
         <v>311</v>
       </c>
       <c r="H189" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I189" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B190" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
@@ -8060,12 +8087,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B191" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
@@ -8090,12 +8117,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B192" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
@@ -8117,15 +8144,15 @@
         <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
@@ -8144,108 +8171,108 @@
         <v>311</v>
       </c>
       <c r="H193" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>505</v>
+      </c>
+      <c r="B194" t="s">
+        <v>201</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="D194" t="s">
+        <v>308</v>
+      </c>
+      <c r="E194" t="s">
+        <v>309</v>
+      </c>
+      <c r="F194" t="s">
+        <v>310</v>
+      </c>
+      <c r="G194" t="s">
+        <v>311</v>
+      </c>
+      <c r="H194" t="s">
+        <v>7</v>
+      </c>
+      <c r="I194" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>506</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>203</v>
       </c>
-      <c r="C194" t="str">
-        <f t="shared" ref="C194:C259" si="3">MID(A194,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D194" t="s">
-        <v>308</v>
-      </c>
-      <c r="E194" t="s">
-        <v>309</v>
-      </c>
-      <c r="F194" t="s">
-        <v>310</v>
-      </c>
-      <c r="G194" t="s">
-        <v>311</v>
-      </c>
-      <c r="H194" t="s">
-        <v>7</v>
-      </c>
-      <c r="I194" t="s">
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C260" si="3">MID(A195,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D195" t="s">
+        <v>308</v>
+      </c>
+      <c r="E195" t="s">
+        <v>309</v>
+      </c>
+      <c r="F195" t="s">
+        <v>310</v>
+      </c>
+      <c r="G195" t="s">
+        <v>311</v>
+      </c>
+      <c r="H195" t="s">
+        <v>7</v>
+      </c>
+      <c r="I195" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>507</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>202</v>
       </c>
-      <c r="C195" t="str">
+      <c r="C196" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="D195" t="s">
-        <v>308</v>
-      </c>
-      <c r="E195" t="s">
-        <v>309</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="D196" t="s">
+        <v>308</v>
+      </c>
+      <c r="E196" t="s">
+        <v>309</v>
+      </c>
+      <c r="F196" t="s">
         <v>320</v>
       </c>
-      <c r="G195" t="s">
-        <v>311</v>
-      </c>
-      <c r="H195" t="s">
-        <v>7</v>
-      </c>
-      <c r="I195" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+      <c r="G196" t="s">
+        <v>311</v>
+      </c>
+      <c r="H196" t="s">
+        <v>7</v>
+      </c>
+      <c r="I196" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>508</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>246</v>
-      </c>
-      <c r="C196" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="D196" t="s">
-        <v>308</v>
-      </c>
-      <c r="E196" t="s">
-        <v>309</v>
-      </c>
-      <c r="F196" t="s">
-        <v>310</v>
-      </c>
-      <c r="G196" t="s">
-        <v>311</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1</v>
-      </c>
-      <c r="I196" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>509</v>
-      </c>
-      <c r="B197" t="s">
-        <v>247</v>
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
@@ -8270,12 +8297,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B198" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
@@ -8300,12 +8327,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B199" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
@@ -8327,15 +8354,15 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B200" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
@@ -8354,18 +8381,18 @@
         <v>311</v>
       </c>
       <c r="H200" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B201" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
@@ -8387,105 +8414,105 @@
         <v>7</v>
       </c>
       <c r="I201" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B202" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="D202" t="s">
+        <v>308</v>
+      </c>
+      <c r="E202" t="s">
+        <v>309</v>
+      </c>
+      <c r="F202" t="s">
+        <v>310</v>
+      </c>
+      <c r="G202" t="s">
+        <v>311</v>
+      </c>
+      <c r="H202" t="s">
+        <v>7</v>
+      </c>
+      <c r="I202" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>514</v>
+      </c>
+      <c r="B203" t="s">
+        <v>122</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="D202" t="s">
-        <v>308</v>
-      </c>
-      <c r="E202" t="s">
-        <v>309</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="D203" t="s">
+        <v>308</v>
+      </c>
+      <c r="E203" t="s">
+        <v>309</v>
+      </c>
+      <c r="F203" t="s">
         <v>320</v>
       </c>
-      <c r="G202" t="s">
-        <v>311</v>
-      </c>
-      <c r="H202" t="s">
-        <v>7</v>
-      </c>
-      <c r="I202" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="G203" t="s">
+        <v>311</v>
+      </c>
+      <c r="H203" t="s">
+        <v>7</v>
+      </c>
+      <c r="I203" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C203" s="1" t="str">
-        <f t="shared" ref="C203" si="4">MID(A203,8,1)</f>
+      <c r="C204" s="1" t="str">
+        <f t="shared" ref="C204" si="4">MID(A204,8,1)</f>
         <v>S</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F203" s="1" t="s">
+      <c r="D204" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I203" s="1" t="s">
+      <c r="G204" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I204" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>515</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>124</v>
-      </c>
-      <c r="C204" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="D204" t="s">
-        <v>308</v>
-      </c>
-      <c r="E204" t="s">
-        <v>309</v>
-      </c>
-      <c r="F204" t="s">
-        <v>310</v>
-      </c>
-      <c r="G204" t="s">
-        <v>311</v>
-      </c>
-      <c r="H204" t="s">
-        <v>7</v>
-      </c>
-      <c r="I204" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>516</v>
-      </c>
-      <c r="B205" t="s">
-        <v>125</v>
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
@@ -8507,15 +8534,15 @@
         <v>7</v>
       </c>
       <c r="I205" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B206" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
@@ -8537,15 +8564,15 @@
         <v>7</v>
       </c>
       <c r="I206" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B207" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
@@ -8567,19 +8594,19 @@
         <v>7</v>
       </c>
       <c r="I207" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B208" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D208" t="s">
         <v>308</v>
@@ -8588,7 +8615,7 @@
         <v>309</v>
       </c>
       <c r="F208" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G208" t="s">
         <v>311</v>
@@ -8597,19 +8624,19 @@
         <v>7</v>
       </c>
       <c r="I208" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B209" t="s">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D209" t="s">
         <v>308</v>
@@ -8618,24 +8645,24 @@
         <v>309</v>
       </c>
       <c r="F209" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G209" t="s">
         <v>311</v>
       </c>
       <c r="H209" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I209" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
@@ -8660,12 +8687,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B211" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
@@ -8684,18 +8711,18 @@
         <v>311</v>
       </c>
       <c r="H211" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I211" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B212" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
@@ -8717,19 +8744,19 @@
         <v>7</v>
       </c>
       <c r="I212" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B213" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D213" t="s">
         <v>308</v>
@@ -8738,7 +8765,7 @@
         <v>309</v>
       </c>
       <c r="F213" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G213" t="s">
         <v>311</v>
@@ -8747,19 +8774,19 @@
         <v>7</v>
       </c>
       <c r="I213" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D214" t="s">
         <v>308</v>
@@ -8768,24 +8795,24 @@
         <v>309</v>
       </c>
       <c r="F214" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G214" t="s">
         <v>311</v>
       </c>
       <c r="H214" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I214" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B215" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
@@ -8807,15 +8834,15 @@
         <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B216" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
@@ -8837,15 +8864,15 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B217" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
@@ -8870,12 +8897,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B218" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
@@ -8900,12 +8927,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B219" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
@@ -8924,18 +8951,18 @@
         <v>311</v>
       </c>
       <c r="H219" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I219" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B220" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
@@ -8957,15 +8984,15 @@
         <v>7</v>
       </c>
       <c r="I220" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B221" t="s">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
@@ -8984,18 +9011,18 @@
         <v>311</v>
       </c>
       <c r="H221" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I221" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B222" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
@@ -9020,12 +9047,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B223" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
@@ -9044,18 +9071,18 @@
         <v>311</v>
       </c>
       <c r="H223" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I223" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B224" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
@@ -9077,15 +9104,15 @@
         <v>7</v>
       </c>
       <c r="I224" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B225" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
@@ -9107,15 +9134,15 @@
         <v>7</v>
       </c>
       <c r="I225" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B226" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
@@ -9137,19 +9164,19 @@
         <v>7</v>
       </c>
       <c r="I226" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B227" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D227" t="s">
         <v>308</v>
@@ -9158,7 +9185,7 @@
         <v>309</v>
       </c>
       <c r="F227" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G227" t="s">
         <v>311</v>
@@ -9167,15 +9194,15 @@
         <v>7</v>
       </c>
       <c r="I227" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B228" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
@@ -9197,19 +9224,19 @@
         <v>7</v>
       </c>
       <c r="I228" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B229" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D229" t="s">
         <v>308</v>
@@ -9218,24 +9245,24 @@
         <v>309</v>
       </c>
       <c r="F229" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G229" t="s">
         <v>311</v>
       </c>
       <c r="H229" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I229" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B230" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
@@ -9254,18 +9281,18 @@
         <v>311</v>
       </c>
       <c r="H230" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I230" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B231" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
@@ -9287,19 +9314,19 @@
         <v>7</v>
       </c>
       <c r="I231" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B232" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D232" t="s">
         <v>308</v>
@@ -9308,24 +9335,24 @@
         <v>309</v>
       </c>
       <c r="F232" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G232" t="s">
         <v>311</v>
       </c>
       <c r="H232" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I232" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B233" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
@@ -9347,19 +9374,19 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B234" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="C234" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D234" t="s">
         <v>308</v>
@@ -9368,7 +9395,7 @@
         <v>309</v>
       </c>
       <c r="F234" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G234" t="s">
         <v>311</v>
@@ -9377,15 +9404,15 @@
         <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B235" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
@@ -9410,12 +9437,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
@@ -9437,15 +9464,15 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B237" t="s">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
@@ -9467,15 +9494,15 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B238" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C238" t="str">
         <f t="shared" si="3"/>
@@ -9497,74 +9524,74 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>549</v>
+      </c>
+      <c r="B239" t="s">
+        <v>298</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="D239" t="s">
+        <v>308</v>
+      </c>
+      <c r="E239" t="s">
+        <v>309</v>
+      </c>
+      <c r="F239" t="s">
+        <v>310</v>
+      </c>
+      <c r="G239" t="s">
+        <v>311</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+    <row r="240" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F239" s="1" t="s">
+      <c r="D240" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G239" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="G240" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>550</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>23</v>
-      </c>
-      <c r="C240" t="str">
-        <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="D240" t="s">
-        <v>308</v>
-      </c>
-      <c r="E240" t="s">
-        <v>309</v>
-      </c>
-      <c r="F240" t="s">
-        <v>310</v>
-      </c>
-      <c r="G240" t="s">
-        <v>311</v>
-      </c>
-      <c r="H240" t="s">
-        <v>7</v>
-      </c>
-      <c r="I240" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>551</v>
-      </c>
-      <c r="B241" t="s">
-        <v>24</v>
       </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
@@ -9586,15 +9613,15 @@
         <v>7</v>
       </c>
       <c r="I241" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B242" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="3"/>
@@ -9613,18 +9640,18 @@
         <v>311</v>
       </c>
       <c r="H242" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I242" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B243" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C243" t="str">
         <f t="shared" si="3"/>
@@ -9646,15 +9673,15 @@
         <v>1</v>
       </c>
       <c r="I243" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B244" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
@@ -9673,18 +9700,18 @@
         <v>311</v>
       </c>
       <c r="H244" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B245" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
@@ -9706,15 +9733,15 @@
         <v>7</v>
       </c>
       <c r="I245" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B246" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
@@ -9736,15 +9763,15 @@
         <v>7</v>
       </c>
       <c r="I246" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B247" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
@@ -9766,15 +9793,15 @@
         <v>7</v>
       </c>
       <c r="I247" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B248" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
@@ -9793,18 +9820,18 @@
         <v>311</v>
       </c>
       <c r="H248" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I248" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B249" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
@@ -9826,15 +9853,15 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B250" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
@@ -9856,15 +9883,15 @@
         <v>1</v>
       </c>
       <c r="I250" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
@@ -9886,15 +9913,15 @@
         <v>1</v>
       </c>
       <c r="I251" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
@@ -9913,18 +9940,18 @@
         <v>311</v>
       </c>
       <c r="H252" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
@@ -9946,15 +9973,15 @@
         <v>7</v>
       </c>
       <c r="I253" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
@@ -9976,15 +10003,15 @@
         <v>7</v>
       </c>
       <c r="I254" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B255" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
@@ -10006,15 +10033,15 @@
         <v>7</v>
       </c>
       <c r="I255" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B256" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
@@ -10036,15 +10063,15 @@
         <v>7</v>
       </c>
       <c r="I256" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B257" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C257" t="str">
         <f t="shared" si="3"/>
@@ -10066,15 +10093,15 @@
         <v>7</v>
       </c>
       <c r="I257" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B258" t="s">
-        <v>620</v>
+        <v>85</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" si="3"/>
@@ -10096,15 +10123,15 @@
         <v>7</v>
       </c>
       <c r="I258" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B259" t="s">
-        <v>66</v>
+        <v>620</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" si="3"/>
@@ -10126,75 +10153,75 @@
         <v>7</v>
       </c>
       <c r="I259" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>569</v>
+      </c>
+      <c r="B260" t="s">
+        <v>66</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="3"/>
+        <v>C</v>
+      </c>
+      <c r="D260" t="s">
+        <v>308</v>
+      </c>
+      <c r="E260" t="s">
+        <v>309</v>
+      </c>
+      <c r="F260" t="s">
+        <v>310</v>
+      </c>
+      <c r="G260" t="s">
+        <v>311</v>
+      </c>
+      <c r="H260" t="s">
+        <v>7</v>
+      </c>
+      <c r="I260" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>570</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>19</v>
       </c>
-      <c r="C260" t="str">
-        <f t="shared" ref="C260:C309" si="5">MID(A260,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D260" t="s">
-        <v>308</v>
-      </c>
-      <c r="E260" t="s">
-        <v>309</v>
-      </c>
-      <c r="F260" t="s">
-        <v>310</v>
-      </c>
-      <c r="G260" t="s">
-        <v>311</v>
-      </c>
-      <c r="H260" t="s">
-        <v>7</v>
-      </c>
-      <c r="I260" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+      <c r="C261" t="str">
+        <f t="shared" ref="C261:C310" si="5">MID(A261,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D261" t="s">
+        <v>308</v>
+      </c>
+      <c r="E261" t="s">
+        <v>309</v>
+      </c>
+      <c r="F261" t="s">
+        <v>310</v>
+      </c>
+      <c r="G261" t="s">
+        <v>311</v>
+      </c>
+      <c r="H261" t="s">
+        <v>7</v>
+      </c>
+      <c r="I261" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>571</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>20</v>
-      </c>
-      <c r="C261" t="str">
-        <f t="shared" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="D261" t="s">
-        <v>308</v>
-      </c>
-      <c r="E261" t="s">
-        <v>309</v>
-      </c>
-      <c r="F261" t="s">
-        <v>310</v>
-      </c>
-      <c r="G261" t="s">
-        <v>311</v>
-      </c>
-      <c r="H261" t="s">
-        <v>7</v>
-      </c>
-      <c r="I261" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>572</v>
-      </c>
-      <c r="B262" t="s">
-        <v>70</v>
       </c>
       <c r="C262" t="str">
         <f t="shared" si="5"/>
@@ -10216,15 +10243,15 @@
         <v>7</v>
       </c>
       <c r="I262" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B263" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="5"/>
@@ -10246,15 +10273,15 @@
         <v>7</v>
       </c>
       <c r="I263" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C264" t="str">
         <f t="shared" si="5"/>
@@ -10276,15 +10303,15 @@
         <v>7</v>
       </c>
       <c r="I264" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B265" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C265" t="str">
         <f t="shared" si="5"/>
@@ -10306,15 +10333,15 @@
         <v>7</v>
       </c>
       <c r="I265" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B266" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="5"/>
@@ -10336,15 +10363,15 @@
         <v>7</v>
       </c>
       <c r="I266" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B267" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C267" t="str">
         <f t="shared" si="5"/>
@@ -10366,15 +10393,15 @@
         <v>7</v>
       </c>
       <c r="I267" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B268" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="5"/>
@@ -10396,15 +10423,15 @@
         <v>7</v>
       </c>
       <c r="I268" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B269" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C269" t="str">
         <f t="shared" si="5"/>
@@ -10426,19 +10453,19 @@
         <v>7</v>
       </c>
       <c r="I269" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B270" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C270" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D270" t="s">
         <v>308</v>
@@ -10447,7 +10474,7 @@
         <v>309</v>
       </c>
       <c r="F270" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G270" t="s">
         <v>311</v>
@@ -10456,19 +10483,19 @@
         <v>7</v>
       </c>
       <c r="I270" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B271" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C271" t="str">
         <f t="shared" si="5"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D271" t="s">
         <v>308</v>
@@ -10477,7 +10504,7 @@
         <v>309</v>
       </c>
       <c r="F271" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G271" t="s">
         <v>311</v>
@@ -10489,12 +10516,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B272" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="5"/>
@@ -10516,15 +10543,15 @@
         <v>7</v>
       </c>
       <c r="I272" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B273" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C273" t="str">
         <f t="shared" si="5"/>
@@ -10543,18 +10570,18 @@
         <v>311</v>
       </c>
       <c r="H273" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I273" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B274" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C274" t="str">
         <f t="shared" si="5"/>
@@ -10576,15 +10603,15 @@
         <v>1</v>
       </c>
       <c r="I274" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B275" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="5"/>
@@ -10606,15 +10633,15 @@
         <v>1</v>
       </c>
       <c r="I275" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B276" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C276" t="str">
         <f t="shared" si="5"/>
@@ -10636,15 +10663,15 @@
         <v>1</v>
       </c>
       <c r="I276" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B277" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C277" t="str">
         <f t="shared" si="5"/>
@@ -10666,15 +10693,15 @@
         <v>1</v>
       </c>
       <c r="I277" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B278" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C278" t="str">
         <f t="shared" si="5"/>
@@ -10696,19 +10723,19 @@
         <v>1</v>
       </c>
       <c r="I278" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B279" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C279" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D279" t="s">
         <v>308</v>
@@ -10717,7 +10744,7 @@
         <v>309</v>
       </c>
       <c r="F279" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G279" t="s">
         <v>311</v>
@@ -10726,19 +10753,19 @@
         <v>1</v>
       </c>
       <c r="I279" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B280" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C280" t="str">
         <f t="shared" si="5"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D280" t="s">
         <v>308</v>
@@ -10747,7 +10774,7 @@
         <v>309</v>
       </c>
       <c r="F280" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G280" t="s">
         <v>311</v>
@@ -10759,12 +10786,12 @@
         <v>640</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B281" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C281" t="str">
         <f t="shared" si="5"/>
@@ -10786,15 +10813,15 @@
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B282" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C282" t="str">
         <f t="shared" si="5"/>
@@ -10816,15 +10843,15 @@
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B283" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C283" t="str">
         <f t="shared" si="5"/>
@@ -10846,19 +10873,19 @@
         <v>1</v>
       </c>
       <c r="I283" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B284" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C284" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D284" t="s">
         <v>308</v>
@@ -10867,7 +10894,7 @@
         <v>309</v>
       </c>
       <c r="F284" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G284" t="s">
         <v>311</v>
@@ -10876,15 +10903,15 @@
         <v>1</v>
       </c>
       <c r="I284" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B285" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C285" t="str">
         <f t="shared" si="5"/>
@@ -10909,16 +10936,16 @@
         <v>640</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B286" t="s">
-        <v>294</v>
+        <v>166</v>
       </c>
       <c r="C286" t="str">
         <f t="shared" si="5"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D286" t="s">
         <v>308</v>
@@ -10927,24 +10954,24 @@
         <v>309</v>
       </c>
       <c r="F286" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G286" t="s">
         <v>311</v>
       </c>
       <c r="H286" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I286" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B287" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C287" t="str">
         <f t="shared" si="5"/>
@@ -10966,15 +10993,15 @@
         <v>7</v>
       </c>
       <c r="I287" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B288" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="C288" t="str">
         <f t="shared" si="5"/>
@@ -10993,18 +11020,18 @@
         <v>311</v>
       </c>
       <c r="H288" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I288" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B289" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C289" t="str">
         <f t="shared" si="5"/>
@@ -11026,15 +11053,15 @@
         <v>1</v>
       </c>
       <c r="I289" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B290" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="5"/>
@@ -11056,15 +11083,15 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B291" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C291" t="str">
         <f t="shared" si="5"/>
@@ -11086,15 +11113,15 @@
         <v>1</v>
       </c>
       <c r="I291" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B292" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C292" t="str">
         <f t="shared" si="5"/>
@@ -11116,15 +11143,15 @@
         <v>1</v>
       </c>
       <c r="I292" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B293" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C293" t="str">
         <f t="shared" si="5"/>
@@ -11146,19 +11173,19 @@
         <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B294" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D294" t="s">
         <v>308</v>
@@ -11167,7 +11194,7 @@
         <v>309</v>
       </c>
       <c r="F294" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G294" t="s">
         <v>311</v>
@@ -11176,19 +11203,19 @@
         <v>1</v>
       </c>
       <c r="I294" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B295" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C295" t="str">
         <f t="shared" si="5"/>
-        <v>C</v>
+        <v>S</v>
       </c>
       <c r="D295" t="s">
         <v>308</v>
@@ -11197,89 +11224,89 @@
         <v>309</v>
       </c>
       <c r="F295" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G295" t="s">
         <v>311</v>
       </c>
       <c r="H295" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I295" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>605</v>
+      </c>
+      <c r="B296" t="s">
+        <v>191</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="D296" t="s">
+        <v>308</v>
+      </c>
+      <c r="E296" t="s">
+        <v>309</v>
+      </c>
+      <c r="F296" t="s">
+        <v>310</v>
+      </c>
+      <c r="G296" t="s">
+        <v>311</v>
+      </c>
+      <c r="H296" t="s">
+        <v>7</v>
+      </c>
+      <c r="I296" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="1" t="str">
-        <f t="shared" ref="C296" si="6">MID(A296,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I296" s="1" t="s">
+      <c r="C297" s="1" t="str">
+        <f t="shared" ref="C297" si="6">MID(A297,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I297" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="297" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+    <row r="298" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C297" s="1" t="str">
+      <c r="C298" s="1" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C298" s="1" t="str">
-        <f t="shared" ref="C298" si="7">MID(A298,8,1)</f>
-        <v>S</v>
-      </c>
       <c r="D298" s="1" t="s">
         <v>308</v>
       </c>
@@ -11296,45 +11323,45 @@
         <v>7</v>
       </c>
       <c r="I298" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C299" s="1" t="str">
+        <f t="shared" ref="C299" si="7">MID(A299,8,1)</f>
+        <v>S</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I299" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+    <row r="300" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B300" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C299" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>C</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C300" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11356,15 +11383,15 @@
         <v>7</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C301" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11383,18 +11410,18 @@
         <v>311</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C302" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11416,15 +11443,15 @@
         <v>1</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="C303" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11443,18 +11470,18 @@
         <v>311</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C304" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11476,15 +11503,15 @@
         <v>7</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C305" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11506,15 +11533,15 @@
         <v>7</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C306" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11536,19 +11563,19 @@
         <v>7</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
-        <v>615</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="C307" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>S</v>
+        <v>C</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>308</v>
@@ -11557,24 +11584,24 @@
         <v>309</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>311</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C308" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11596,15 +11623,15 @@
         <v>1</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
-        <v>624</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C309" s="1" t="str">
         <f t="shared" si="5"/>
@@ -11626,102 +11653,132 @@
         <v>1</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C310" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C310" s="1" t="str">
-        <f t="shared" ref="C310" si="8">MID(A310,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E310" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I310" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="4" t="s">
+      <c r="C311" s="1" t="str">
+        <f t="shared" ref="C311" si="8">MID(A311,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B312" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C311" s="4" t="str">
-        <f>MID(A311,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E311" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G311" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H311" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I311" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="4" t="s">
+      <c r="C312" s="1" t="str">
+        <f>MID(A312,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B313" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C312" s="4" t="str">
-        <f>MID(A312,8,1)</f>
-        <v>C</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G312" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H312" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I312" s="4" t="s">
+      <c r="C313" s="1" t="str">
+        <f>MID(A313,8,1)</f>
+        <v>C</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I313" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:J312" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:J313" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
